--- a/biology/Zoologie/Girelle_verte/Girelle_verte.xlsx
+++ b/biology/Zoologie/Girelle_verte/Girelle_verte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalassoma lunare, espèce appelée Girelle paon aux Maldives ou Girelle verte (France, Djibouti) est une girelle, nom donné à certains poissons osseux de petite taille de la famille des Labridae. Elle peut cependant mesurer jusqu'à 45 cm de long.
 Cette espèce se trouve dans les eaux peu profondes (de 1 à 20m) des lagunes et des récifs côtiers. Sa répartition géographique est la zone océanique Indo-Pacifique, de la Mer Rouge et de l’Afrique de l’Est aux îles de la Ligne.
@@ -512,9 +524,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La girelle paon ou girelle verte se nourrit d’invertébrés benthiques tels les crustacés et les gastéropodes marins … et de petits poissons[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La girelle paon ou girelle verte se nourrit d’invertébrés benthiques tels les crustacés et les gastéropodes marins … et de petits poissons.
 </t>
         </is>
       </c>
